--- a/Documentation/Doku_SS2017/Zeitplan_ab_31_07.xlsx
+++ b/Documentation/Doku_SS2017/Zeitplan_ab_31_07.xlsx
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -263,6 +263,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,10 +283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -604,7 +605,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,12 +618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
@@ -660,10 +661,10 @@
         <v>16</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -672,8 +673,8 @@
       <c r="C5" s="1">
         <v>42949</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -682,10 +683,10 @@
       <c r="C6" s="1">
         <v>42950</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="7">
         <v>0.375</v>
       </c>
     </row>
@@ -750,7 +751,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1">
@@ -760,7 +761,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="1">
@@ -770,7 +771,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="2">
@@ -780,7 +781,7 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2">
@@ -793,7 +794,7 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="1">
